--- a/tests/Templates/tPivot5_Static.xlsx
+++ b/tests/Templates/tPivot5_Static.xlsx
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Static Pivot Table</t>
-  </si>
-  <si>
-    <t>delete</t>
   </si>
   <si>
     <t>Company</t>
@@ -105,21 +102,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -138,6 +127,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -148,8 +159,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF9F7CFF"/>
+        <bgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -177,36 +188,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -223,6 +234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -233,8 +246,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -260,46 +275,39 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>590550</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1695450" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="I:\Images\4\bmpLogo4.gif"/>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352675" y="28575"/>
-          <a:ext cx="2238375" cy="561975"/>
+          <a:off x="2924175" y="0"/>
+          <a:ext cx="1695450" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -762,129 +770,129 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>23</v>
+      <c r="E5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="20"/>
       <c r="C7" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -908,7 +916,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -918,78 +926,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="11.25">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4">
@@ -998,6 +1001,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/Templates/tPivot5_Static.xlsx
+++ b/tests/Templates/tPivot5_Static.xlsx
@@ -2,49 +2,65 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="24435" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="17400" windowHeight="11940"/>
   </bookViews>
   <sheets>
-    <sheet name="PivotSheet" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="PivotSheet" sheetId="4" r:id="rId1"/>
+    <sheet name="Pivot Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Orders">Лист1!$A$4:$H$5</definedName>
+    <definedName name="SourceRange">Sheet1!$A$4:$H$5</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+  <si>
+    <t>OrderNo</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Payment method</t>
+  </si>
+  <si>
+    <t>Items total</t>
+  </si>
+  <si>
+    <t>Amount paid</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Ship date</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount paid </t>
+  </si>
   <si>
     <t>Static Pivot Table</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Payment method</t>
-  </si>
-  <si>
-    <t>OrderNo</t>
-  </si>
-  <si>
-    <t>Ship date</t>
-  </si>
-  <si>
-    <t>Items total</t>
-  </si>
-  <si>
-    <t>Tax rate</t>
-  </si>
-  <si>
-    <t>Amount paid</t>
+    <t>Sum of Items total</t>
+  </si>
+  <si>
+    <t>&lt;&lt;delete&gt;&gt;</t>
   </si>
   <si>
     <t>{{item.Company}}</t>
@@ -68,31 +84,22 @@
     <t>{{item.AmountPaid}}</t>
   </si>
   <si>
+    <t>&lt;&lt;pivot&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итог Amount paid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итог Items Total </t>
+  </si>
+  <si>
+    <t>{{item.PaymentMethod}} Итог</t>
+  </si>
+  <si>
+    <t>{{item.Company}} Итог</t>
+  </si>
+  <si>
     <t>Общий итог</t>
-  </si>
-  <si>
-    <t>Значения</t>
-  </si>
-  <si>
-    <t>{{item.PaymentMethod}} Итог</t>
-  </si>
-  <si>
-    <t>{{item.Company}} Итог</t>
-  </si>
-  <si>
-    <t>Итог Сумма по полю Amount paid</t>
-  </si>
-  <si>
-    <t>Сумма по полю Amount paid</t>
-  </si>
-  <si>
-    <t>Итог Сумма Items total</t>
-  </si>
-  <si>
-    <t>Сумма Items total</t>
-  </si>
-  <si>
-    <t>&lt;&lt;pivot&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -102,22 +109,29 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="16"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -129,8 +143,30 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -143,14 +179,27 @@
     <font>
       <b/>
       <i/>
-      <sz val="16"/>
-      <color indexed="9"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +208,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9F7CFF"/>
-        <bgColor indexed="42"/>
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666699"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -187,71 +260,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="70">
     <dxf>
       <font>
         <condense val="0"/>
@@ -260,76 +575,462 @@
       </font>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF666699"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1695450" cy="609600"/>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3074" name="Picture 2" descr="I:\Images\4\bmpLogo4.gif"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2924175" y="0"/>
-          <a:ext cx="1695450" cy="609600"/>
+          <a:off x="2390775" y="19050"/>
+          <a:ext cx="2228850" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy=" " refreshedDate="43059.635203472222" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy=" " refreshedDate="43287.884350694447" createdVersion="3" refreshedVersion="3" recordCount="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B3:H4" sheet="Лист1"/>
+    <worksheetSource ref="B3:H4" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Company" numFmtId="0">
-      <sharedItems count="1">
+      <sharedItems count="2">
         <s v="{{item.Company}}"/>
+        <e v="#NAME?" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Payment method" numFmtId="0">
-      <sharedItems count="1">
+      <sharedItems count="2">
         <s v="{{item.PaymentMethod}}"/>
+        <e v="#NAME?" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="OrderNo" numFmtId="0">
-      <sharedItems count="1">
+      <sharedItems count="2">
         <s v="{{item.OrderNo}}"/>
+        <e v="#NAME?" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Ship date" numFmtId="164">
@@ -339,8 +1040,9 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Tax rate" numFmtId="0">
-      <sharedItems count="1">
+      <sharedItems count="2">
         <s v="{{item.TaxRate}}"/>
+        <e v="#NAME?" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Amount paid" numFmtId="3">
@@ -365,36 +1067,40 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="3" minRefreshableVersion="3" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="B3:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="3"/>
   <pivotFields count="7">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="2">
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="2">
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="2">
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" rankBy="0">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="2">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisCol" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
@@ -403,15 +1109,15 @@
   </rowFields>
   <rowItems count="4">
     <i>
-      <x/>
-      <x/>
-      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="1"/>
     </i>
     <i t="default" r="1">
-      <x/>
+      <x v="1"/>
     </i>
     <i t="default">
-      <x/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -423,7 +1129,7 @@
   </colFields>
   <colItems count="4">
     <i>
-      <x/>
+      <x v="1"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -437,33 +1143,536 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Сумма по полю Amount paid" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Сумма Items total" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Amount paid " fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Items Total " fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="3">
-    <format dxfId="3">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="5" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+  <formats count="32">
+    <format dxfId="69">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" defaultSubtotal="1">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
-      <pivotArea field="5" dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Second PivotTable" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="3" minRefreshableVersion="3" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="B4:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Items total" fld="4" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="37">
+    <format dxfId="37">
+      <pivotArea dataOnly="0" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
@@ -745,263 +1954,436 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H9"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+    <row r="1" spans="2:14">
+      <c r="N1" s="6"/>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="18" t="s">
+    <row r="3" spans="2:14">
+      <c r="B3" s="29"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="2:14" ht="11.25" customHeight="1">
+      <c r="B4" s="41"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="12.75">
+      <c r="B5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
+      <c r="C6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+    <row r="7" spans="2:14" ht="11.25" customHeight="1">
+      <c r="B7" s="55"/>
+      <c r="C7" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+    <row r="8" spans="2:14" ht="12">
+      <c r="B8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="20"/>
-      <c r="C7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
+    <row r="9" spans="2:14" ht="12.75">
+      <c r="B9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="2:5" ht="11.25" customHeight="1">
+      <c r="B5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="11.25" customHeight="1">
+      <c r="B6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="11.25" customHeight="1">
+      <c r="B7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1">
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+    <row r="1" spans="1:8" ht="47.25" customHeight="1">
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="C4" s="24" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="11.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"VISA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="255" orientation="portrait" horizontalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>